--- a/medicine/Sexualité et sexologie/The_Wicker_Tree/The_Wicker_Tree.xlsx
+++ b/medicine/Sexualité et sexologie/The_Wicker_Tree/The_Wicker_Tree.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Wicker Tree est un thriller d'horreur britannique écrit et réalisé par Robin Hardy et qui est sorti en 2012. Il s'agit d'une relecture de The Wicker Man, du même réalisateur.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beth (Nicol) et Steve (Garrett), deux missionnaires chrétiens évangéliques texans se retrouvent en Écosse prêcher la chasteté à une communauté polythéiste et  infertile dirigée par Sir Lachlan Morrison (McTavish)[1]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beth (Nicol) et Steve (Garrett), deux missionnaires chrétiens évangéliques texans se retrouvent en Écosse prêcher la chasteté à une communauté polythéiste et  infertile dirigée par Sir Lachlan Morrison (McTavish)...
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Wicker Tree
 Titre français :
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christopher Lee : le vieil homme
 Graham McTavish : Sir Lachlan Morrison
@@ -633,7 +651,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La nouvelle de David Pinner a déjà été adaptée par Robin Hardy pour Le Dieu d'osier, lequel a servi de base au remake de Neil LaBute, The Wicker Man. The Wicker Tree est une nouvelle revisitation du thème. D'ailleurs Robin Hardy recrute pour ce nouveau film un des acteurs fétiches présents dans Le Dieu d'osier, Christopher Lee. 
 </t>
